--- a/medicine/Mort/Décès_en_1974/Décès_en_1974.xlsx
+++ b/medicine/Mort/Décès_en_1974/Décès_en_1974.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1974</t>
+          <t>Décès_en_1974</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1974</t>
+          <t>Décès_en_1974</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,14 +540,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Gio Colucci, peintre, graveur, illustrateur, céramiste et sculpteur italien (° 1892).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Gio Colucci, peintre, graveur, illustrateur, céramiste et sculpteur italien (° 1892).
 Thomas Benjamin Fitzpatrick, homme politique américain (° 1896).
 Heinrich Medau,  théoricien-formateur d'éducation physique et musicien allemand (° 1890).
 Boris Pastoukhoff, peintre d'origine russe (° 1894).
-Gaston Plovie, joueur et entraîneur de football belge d'origine hongroise (° 12 janvier 1911).
-Janvier
-2 janvier : André Beauce, peintre français (° 23 mai 1911).
+Gaston Plovie, joueur et entraîneur de football belge d'origine hongroise (° 12 janvier 1911).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1974</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1974</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 janvier : André Beauce, peintre français (° 23 mai 1911).
 4 janvier : Armand Rébillon, historien français (° 26 novembre 1879).
 6 janvier : René Lala-Gaillard,  peintre français (° 5 mai 1893).
 7 janvier :
@@ -551,9 +602,43 @@
 25 janvier : William Fawcett, acteur américain (° 8 septembre 1894).
 27 janvier :
 Henry de Monfreid, écrivain et navigateur (° 15 novembre 1879).
-Carlo Zinelli, peintre italien (° 2 juillet 1916).
-Février
-2 février : Jean Absil, compositeur belge (° 23 octobre 1893).
+Carlo Zinelli, peintre italien (° 2 juillet 1916).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1974</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1974</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2 février : Jean Absil, compositeur belge (° 23 octobre 1893).
 3 février : Georges Pilley, peintre français (° 16 octobre 1885).
 4 février : Stuart Buchanan, acteur américain (° 18 mars 1894).
 7 février : Géa Augsbourg, peintre, illustrateur et dessinateur de presse suisse (° 11 janvier 1902).
@@ -566,9 +651,43 @@
 21 février : James Daugherty, écrivain et peintre américain (° 1er juin 1889).
 22 février : Jacques Nam, dessinateur, graveur, peintre et sculpteur français (° 11 septembre 1881).
 25 février : Hossein Tehrani, percussionniste iranien, maître incontesté de tombak (° 1912).
-27 février : Léonie Luiggi Jarnier, éducatrice française, juste parmi les nations (° 11 août 1895).
-Mars
-9 mars : Luigi Zuccheri, peintre et illustrateur italien (° 13 mars 1904).
+27 février : Léonie Luiggi Jarnier, éducatrice française, juste parmi les nations (° 11 août 1895).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1974</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1974</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>9 mars : Luigi Zuccheri, peintre et illustrateur italien (° 13 mars 1904).
 10 mars : Bolesław Kominek, cardinal polonais, archevêque de Wrocław (° 23 décembre 1903).
 12 mars : Oleksiy Chovkounenko, peintre russe puis soviétique (° 21 mars 1884).
 13 mars : Frans de Vreng, coureur cycliste sur piste néerlandais (° 11 avril 1898).
@@ -578,9 +697,43 @@
 22 mars : Heihachirō Fukuda, peintre nihonga et designer japonais (° 28 février 1892).
 23 mars : Clotilde Joano, comédienne française (° 3 janvier 1932).
 26 mars : Wilfred Pickles, acteur et présentateur de radio anglais (° 13 octobre 1904).
-31 mars : Victor Boin, sportif belge (° 28 février 1886).
-Avril
-2 avril : Georges Pompidou, Président de la République française (° 5 juillet 1911).
+31 mars : Victor Boin, sportif belge (° 28 février 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1974</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1974</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2 avril : Georges Pompidou, Président de la République française (° 5 juillet 1911).
 4 avril : Alexandre Delmer, ingénieur et homme politique belge (° 2 octobre 1879).
 6 avril : Štěpán Trochta, cardinal tchécoslovaque, évêque de Litoměřice (° 26 mars 1905).
 10 avril : Antoine Darlan, syndicaliste et homme politique centrafricain (° 1915).
@@ -600,9 +753,43 @@
 Luc Hueber, peintre français (° 27 septembre 1888).
 25 avril :
 Pamela Courson, compagne de Jim Morrison, leader des Doors (° 22 décembre 1946).
-Adrian Kaploun, peintre, graphiste et graveur russe puis soviétique (° 27 août 1887).
-Mai
-2 mai : Théo Eblé, peintre suisse (° 1er juin 1899).
+Adrian Kaploun, peintre, graphiste et graveur russe puis soviétique (° 27 août 1887).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1974</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1974</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2 mai : Théo Eblé, peintre suisse (° 1er juin 1899).
 4 mai : Alcide Rousseau, coureur cycliste français (° 7 octobre 1881).
 8 mai : Graham Bond, musicien anglais (° 28 octobre 1937).
 9 mai : Georges Boussenot, homme politique et journaliste français (° 25 juillet 1876).
@@ -618,9 +805,43 @@
 Donald Crisp, acteur, réalisateur, producteur et scénariste britannique  (° 27 juillet 1882).
 Arturo Jauretche, avocat, journaliste, écrivain et homme politique argentin (° 13 novembre 1901).
 30 mai : François Angeli, peintre et graveur français (° 13 février 1890).
-? mai : Leslie Austin, acteur britannique (° 21 novembre 1885).
-Juin
-2 juin : Louis Harmand, historien français (° 13 octobre 1906).
+? mai : Leslie Austin, acteur britannique (° 21 novembre 1885).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1974</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1974</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2 juin : Louis Harmand, historien français (° 13 octobre 1906).
 3 juin : Gino Cervi, acteur italien (° 3 mai 1901).
 8 juin : Boris Balter, écrivain soviétique (° 6 juillet 1919).
 9 juin :
@@ -637,9 +858,43 @@
 Michel Frechon, peintre français de l'École de Rouen (° 30 août 1892).
 Darius Milhaud, compositeur, membre Les Six (° 4 septembre 1892).
 23 juin : Louise Le Vavasseur, illustratrice et peintre française (° 29 octobre 1891).
-28 juin : Mauricius, anarchiste français (° 24 février 1886).
-Juillet
-1er juillet :
+28 juin : Mauricius, anarchiste français (° 24 février 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1974</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1974</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1er juillet :
 Emilio Maria Beretta, peintre suisse (° 27 mars 1907).
 Frédéric Luce, peintre français (° 19 juillet 1896).
 Juan Peron, militaire, homme d'État et écrivain argentin (° 8 octobre 1895).
@@ -655,9 +910,43 @@
 20 juillet :  Leslie Bradley, acteur anglais (° 1er septembre 1907).
 24 juillet : James Chadwick, physicien britannique (° 20 octobre 1891).
 28 juillet : Henri Trannin, footballeur français (° 1919).
-30 juillet : Lev Knipper, compositeur soviétique (° 3 décembre 1898).
-Août
-4 août : Joseph Busto, footballeur français (° 10 décembre 1916)[1].
+30 juillet : Lev Knipper, compositeur soviétique (° 3 décembre 1898).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1974</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1974</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>4 août : Joseph Busto, footballeur français (° 10 décembre 1916).
 6 août : Gene Ammons, saxophoniste de jazz américain (° 14 avril 1925).
 8 août : Chihiro Iwasaki, peintre et illustratrice japonaise (° 15 décembre 1918).
 10 août : Ivor  Dean, acteur anglais (° 21 décembre 1917).
@@ -668,9 +957,43 @@
 15 août : Geneviève Rostan, illustratrice et graveuse française (° 11 janvier 1886).
 23 août : Pierre Bobot, laqueur français (° 16 février 1902).
 25 août : Paul Dungler, industriel du textile, militant royaliste et résistant français (°1er mars 1902).
-26 août : Charles Lindbergh, aviateur américain (° 4 février 1902).
-Septembre
-3 septembre : Roger de la Corbière, peintre paysagiste français (° 22 juillet 1893).
+26 août : Charles Lindbergh, aviateur américain (° 4 février 1902).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1974</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1974</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>3 septembre : Roger de la Corbière, peintre paysagiste français (° 22 juillet 1893).
 4 septembre : Marcel Achard, écrivain et réalisateur français (° 5 juillet 1899).
 5 septembre : Jean Julien, peintre français (° 12 mai 1888).
 13 septembre : Heinz Potthoff, fonctionnaire et homme politique allemand (° 30 mars 1904).
@@ -686,9 +1009,43 @@
 29 septembre :
 Robert Gall, peintre français (° 8 janvier 1904).
 Maurice F. Perrot, peintre français (° 2 janvier 1892).
-? septembre : José Luis Nell, homme politique argentin (° 1940).
-Octobre
-1er octobre : Jean Collet, peintre français (° 26 janvier 1886).
+? septembre : José Luis Nell, homme politique argentin (° 1940).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1974</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1974</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1er octobre : Jean Collet, peintre français (° 26 janvier 1886).
 2 octobre : José Argemí, footballeur espagnol (° 10 février 1911).
 7 octobre :
 René Dary, acteur français (° 18 juillet 1905).
@@ -700,9 +1057,43 @@
 22 octobre : Maurice Blond, peintre polonais (° 1899).
 24 octobre :
 Édouard Crut, footballeur français (° 16 avril 1901).
-David Oïstrakh, violoniste russe (° 30 septembre 1908).
-Novembre
-1er novembre : František Muzika, pédagogue, peintre, scénographe, typographe, illustrateur, artiste graphique et enseignant austro-hongrois puis tchécoslovaque (° 26 juin 1900).
+David Oïstrakh, violoniste russe (° 30 septembre 1908).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1974</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1974</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre : František Muzika, pédagogue, peintre, scénographe, typographe, illustrateur, artiste graphique et enseignant austro-hongrois puis tchécoslovaque (° 26 juin 1900).
 4 novembre : Edgar Fernhout, peintre néerlandais (° 17 août 1912).
 5 novembre : Madeleine Bunoust, peintre française (° 19 juillet 1885).
 7 novembre :
@@ -718,9 +1109,43 @@
 Nick Drake, auteur-compositeur-interprète et musicien britannique (° 19 juin 1948).
 U Thant, homme politique birman (° 22 janvier 1909).
 27 novembre : Louise Morel, peintre française (° 18 décembre 1898).
-29 novembre : Åke Gartz, homme politique et homme d'affaires finlandais (° 9 juin 1888).
-Décembre
-1er décembre : Henri Derringer, résistant et officier de carrière française d'origine allemande (° 13 février 1905).
+29 novembre : Åke Gartz, homme politique et homme d'affaires finlandais (° 9 juin 1888).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1974</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1974</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1er décembre : Henri Derringer, résistant et officier de carrière française d'origine allemande (° 13 février 1905).
 2 décembre :
 Paul Coze, peintre, illustrateur, ethnologue et écrivain français (° 29 juillet 1903).
 Sophie-Carmen Eckhardt-Gramatté, compositrice, pianiste, violoniste et pédagogue canadienne d'origine russe (° 24 décembre 1901).
@@ -741,9 +1166,43 @@
 Jack Benny, acteur, humoriste et producteur américain (° 14 février 1894).
 Knudåge Riisager, compositeur danois (° 6 mars 1897).
 30 décembre : Alice Halicka, peintre et dessinatrice polonaise naturalisée française (° 20 décembre 1889).
-31 décembre : Jean Lefeuvre, peintre paysagiste français (° 6 août 1882).
-Date inconnue
-Fernando Gerassi, peintre turc et espagnol (° 5 octobre 1899).</t>
+31 décembre : Jean Lefeuvre, peintre paysagiste français (° 6 août 1882).</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Décès_en_1974</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1974</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Date inconnue</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Fernando Gerassi, peintre turc et espagnol (° 5 octobre 1899).</t>
         </is>
       </c>
     </row>
